--- a/public/informes/1567/1567/1567_2021_12_17.xlsx
+++ b/public/informes/1567/1567/1567_2021_12_17.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-1\Desktop\Proyectos en curso\Informes Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Qualitat\Qualitat\05- INFORMES MOLDES\1567 INTERIOR TAPA 50 ML STANDARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-2205" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="MOLDE" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>DENOMINACIÓ</t>
   </si>
@@ -238,9 +238,6 @@
     </r>
   </si>
   <si>
-    <t>Pakmol</t>
-  </si>
-  <si>
     <t>Se prueba molde modificado: Al trabajar el molde con la presión de la inyectora este pierde agua entre placas lado mobil, lado fijo (figuras lado contrario operario). La cavidad 2 filtra material generando rebaba, tenemos dificultad para inyectar, piezas de paredes mas delgadas que las muestras antiguas.</t>
   </si>
   <si>
@@ -274,11 +271,30 @@
 Al realizar de nuevo las pruebas se observan problemas con altura de tope de 10.40 pues la tapa no frena en su sitio ocasionando problemas.
 En esta ocasion se procede con la parte movil del molde recortando las camisas de rosca 0.50mm</t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Se prueba molde, con modificación nuevo dentado, hemos podido inyectar las 4 cavidades, pero las piezas son funcionalmente nok, en el montaje de los subconjuntos el dentado patina al apretar el conjunto. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>INFORME CALIDAD 30/11/2021</t>
+    </r>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -340,7 +356,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +366,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -469,116 +491,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -617,7 +627,7 @@
         <xdr:cNvPr id="5" name="Imagen 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -916,19 +926,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="48.28515625" style="28" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" style="9" customWidth="1"/>
     <col min="6" max="6" width="17.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.85546875" style="1" customWidth="1"/>
@@ -936,34 +946,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44"/>
-      <c r="B1" s="44"/>
-      <c r="C1" s="43" t="s">
+      <c r="A1" s="30"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="47"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
+      <c r="C2" s="34"/>
     </row>
     <row r="3" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="A3" s="23">
         <v>1567</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="F3" s="32">
+      <c r="C3" s="35"/>
+      <c r="F3" s="22">
         <v>466</v>
       </c>
     </row>
@@ -994,55 +1004,55 @@
       </c>
     </row>
     <row r="6" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="A6" s="13">
         <v>43915</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="16" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="27"/>
       <c r="E6" s="11"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
     </row>
     <row r="7" spans="1:7" s="7" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13">
         <v>43921</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="27"/>
+      <c r="D7" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="6"/>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14">
+      <c r="A8" s="13">
         <v>44106</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="17" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="12"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="11"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="14">
+      <c r="A9" s="14"/>
+      <c r="B9" s="13">
         <v>44141</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="18" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="26" t="s">
         <v>13</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -1051,52 +1061,52 @@
       <c r="F9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>44223</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="17" t="s">
+      <c r="B10" s="14"/>
+      <c r="C10" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="12"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
     </row>
-    <row r="11" spans="1:7" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="19" t="s">
+    <row r="11" spans="1:7" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="12"/>
+      <c r="D11" s="27"/>
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
     </row>
     <row r="12" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="19" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="12"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
     </row>
     <row r="13" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14">
+      <c r="A13" s="13"/>
+      <c r="B13" s="13">
         <v>44232</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="18" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="11" t="s">
@@ -1105,80 +1115,80 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="17" t="s">
+    <row r="14" spans="1:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="12"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="11"/>
       <c r="F14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="20" t="s">
+      <c r="G14" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="14">
+      <c r="A15" s="14"/>
+      <c r="B15" s="13">
         <v>44237</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="18" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="26" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="20" t="s">
+      <c r="G15" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>44251</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="12"/>
+      <c r="D16" s="27"/>
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
     </row>
     <row r="17" spans="1:7" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4">
         <v>44266</v>
       </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="22" t="s">
+      <c r="C17" s="26"/>
+      <c r="D17" s="27" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="15" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="26" t="s">
         <v>27</v>
       </c>
       <c r="D18" s="27" t="s">
@@ -1187,16 +1197,17 @@
       <c r="E18" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="21"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="40"/>
     </row>
     <row r="19" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="26" t="s">
         <v>34</v>
       </c>
       <c r="D19" s="27" t="s">
@@ -1205,16 +1216,17 @@
       <c r="E19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="23"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="40"/>
     </row>
     <row r="20" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="26" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="27" t="s">
@@ -1223,16 +1235,17 @@
       <c r="E20" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="40"/>
     </row>
     <row r="21" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="26" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="27" t="s">
@@ -1241,85 +1254,105 @@
       <c r="E21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="29"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="40"/>
     </row>
     <row r="22" spans="1:7" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="34" t="s">
+      <c r="D22" s="27" t="s">
         <v>48</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="30"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="40"/>
     </row>
     <row r="23" spans="1:7" ht="180" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="40">
+      <c r="A23" s="25"/>
+      <c r="B23" s="44">
         <v>44511</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39" t="s">
+      <c r="C23" s="26"/>
+      <c r="D23" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="35" t="s">
+      <c r="E23" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="24"/>
+      <c r="G23" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="37">
+        <v>44515</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
-        <v>44515</v>
-      </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="36"/>
-      <c r="E24" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
+      <c r="D24" s="27"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="40"/>
     </row>
     <row r="25" spans="1:7" ht="369.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="4">
         <v>44526</v>
       </c>
-      <c r="C25" s="41"/>
-      <c r="D25" s="39" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="E25" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="42" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="36" customFormat="1" ht="75.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="37">
+        <v>44530</v>
+      </c>
+      <c r="B26" s="38"/>
+      <c r="C26" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="38"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+    </row>
+    <row r="27" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="A27" s="18"/>
+      <c r="B27" s="4">
+        <v>44547</v>
+      </c>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E27" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-    </row>
-    <row r="26" spans="1:7" ht="180" x14ac:dyDescent="0.25">
-      <c r="A26" s="24"/>
-      <c r="B26" s="4">
-        <v>44526</v>
-      </c>
-      <c r="C26" s="42"/>
-      <c r="D26" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
+      <c r="F27" s="37">
+        <v>44547</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
